--- a/forecast_summary_B0BF7FT26Z.xlsx
+++ b/forecast_summary_B0BF7FT26Z.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C2" t="n">
         <v>209.4815080178725</v>
       </c>
       <c r="D2" t="n">
-        <v>313.1864313899788</v>
+        <v>325.3815495512253</v>
       </c>
       <c r="E2" t="n">
         <v>187</v>
@@ -511,6 +516,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C3" t="n">
         <v>145.0939721389128</v>
       </c>
       <c r="D3" t="n">
-        <v>255.2931305506127</v>
+        <v>258.9711750898151</v>
       </c>
       <c r="E3" t="n">
         <v>110</v>
@@ -547,6 +555,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C4" t="n">
         <v>121.8038238541991</v>
       </c>
       <c r="D4" t="n">
-        <v>232.3931778651352</v>
+        <v>238.7929411285843</v>
       </c>
       <c r="E4" t="n">
         <v>142</v>
@@ -583,6 +594,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C5" t="n">
         <v>123.8763144454349</v>
       </c>
       <c r="D5" t="n">
-        <v>237.1006359015469</v>
+        <v>247.0543783687648</v>
       </c>
       <c r="E5" t="n">
         <v>101</v>
@@ -619,6 +633,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C6" t="n">
         <v>120.3057414298295</v>
       </c>
       <c r="D6" t="n">
-        <v>240.8209207941185</v>
+        <v>229.937982259224</v>
       </c>
       <c r="E6" t="n">
         <v>94</v>
@@ -655,6 +672,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C7" t="n">
         <v>101.667862404378</v>
       </c>
       <c r="D7" t="n">
-        <v>206.0842749273391</v>
+        <v>211.5337969037415</v>
       </c>
       <c r="E7" t="n">
         <v>98</v>
@@ -691,6 +711,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C8" t="n">
         <v>82.75606346318897</v>
       </c>
       <c r="D8" t="n">
-        <v>205.1198805946588</v>
+        <v>189.2769267152856</v>
       </c>
       <c r="E8" t="n">
         <v>95</v>
@@ -727,6 +750,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C9" t="n">
         <v>77.44559203192078</v>
       </c>
       <c r="D9" t="n">
-        <v>190.4134595178825</v>
+        <v>181.7396893229608</v>
       </c>
       <c r="E9" t="n">
         <v>94</v>
@@ -763,6 +789,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C10" t="n">
         <v>81.29694514883862</v>
       </c>
       <c r="D10" t="n">
-        <v>186.774539865714</v>
+        <v>192.3225352746785</v>
       </c>
       <c r="E10" t="n">
         <v>98</v>
@@ -799,6 +828,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C11" t="n">
         <v>80.50212870304303</v>
       </c>
       <c r="D11" t="n">
-        <v>190.7230470816977</v>
+        <v>198.4401755215022</v>
       </c>
       <c r="E11" t="n">
         <v>127</v>
@@ -835,6 +867,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C12" t="n">
         <v>70.99576246391005</v>
       </c>
       <c r="D12" t="n">
-        <v>182.7243009938103</v>
+        <v>176.7811834916402</v>
       </c>
       <c r="E12" t="n">
         <v>130</v>
@@ -871,6 +906,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>62.54467933154221</v>
       </c>
       <c r="D13" t="n">
-        <v>174.9195162472533</v>
+        <v>172.6804781145252</v>
       </c>
       <c r="E13" t="n">
         <v>130</v>
@@ -907,6 +945,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C14" t="n">
         <v>65.18238932709139</v>
       </c>
       <c r="D14" t="n">
-        <v>182.5458481267067</v>
+        <v>175.5689849409762</v>
       </c>
       <c r="E14" t="n">
         <v>128</v>
@@ -943,6 +984,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C15" t="n">
         <v>76.99274199432388</v>
       </c>
       <c r="D15" t="n">
-        <v>194.1303668508602</v>
+        <v>179.630477245309</v>
       </c>
       <c r="E15" t="n">
         <v>123</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" t="n">
         <v>87.31807841556235</v>
       </c>
       <c r="D16" t="n">
-        <v>204.0040313163104</v>
+        <v>202.1109804556535</v>
       </c>
       <c r="E16" t="n">
         <v>128</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" t="n">
         <v>88.74510794120003</v>
       </c>
       <c r="D17" t="n">
-        <v>204.3403354395846</v>
+        <v>202.9490883209303</v>
       </c>
       <c r="E17" t="n">
         <v>127</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C18" t="n">
         <v>82.59316741933741</v>
       </c>
       <c r="D18" t="n">
-        <v>192.2530004774994</v>
+        <v>200.0167983566856</v>
       </c>
       <c r="E18" t="n">
         <v>118</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C19" t="n">
         <v>74.02676117422142</v>
       </c>
       <c r="D19" t="n">
-        <v>188.6530795872128</v>
+        <v>179.6161420692823</v>
       </c>
       <c r="E19" t="n">
         <v>112</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C20" t="n">
         <v>66.05403128444107</v>
       </c>
       <c r="D20" t="n">
-        <v>181.188498629038</v>
+        <v>189.7769288014767</v>
       </c>
       <c r="E20" t="n">
         <v>124</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C21" t="n">
         <v>59.73238634042093</v>
       </c>
       <c r="D21" t="n">
-        <v>170.9765909819089</v>
+        <v>181.4156936887863</v>
       </c>
       <c r="E21" t="n">
         <v>111</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>X670 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2318</t>
+          <t>2311</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>1343</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>789</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>256</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1457,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>
